--- a/game/assets/i18n/main.xlsx
+++ b/game/assets/i18n/main.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/efe1273c8103e7e0/dev/Iso/Maquette/assets/i18n/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmich\Documents\GitHub\iso-maquette\game\assets\i18n\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="8_{04E58DCF-57E5-4ED9-B029-E9B1B9F9A7FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33D7EEB6-6BAE-42C5-B05D-C80B14D793AD}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EEFE968C-B7AB-4C50-8800-0618BE1A93ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B9751365-3DF7-495F-BD4E-13BB2142DF40}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="133">
   <si>
     <t>clés</t>
   </si>
@@ -423,6 +423,18 @@
   </si>
   <si>
     <t>Quitter</t>
+  </si>
+  <si>
+    <t>Continue</t>
+  </si>
+  <si>
+    <t>Continuer</t>
+  </si>
+  <si>
+    <t>Nouvelle partie</t>
+  </si>
+  <si>
+    <t>New game</t>
   </si>
 </sst>
 </file>
@@ -477,14 +489,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office 2013 – 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -522,7 +530,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -628,7 +636,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -770,7 +778,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -778,10 +786,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{293BBC0C-BC21-40FC-9811-3583CDB342CC}">
-  <dimension ref="A1:B70"/>
+  <dimension ref="A1:B72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1350,6 +1358,22 @@
         <v>128</v>
       </c>
     </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>129</v>
+      </c>
+      <c r="B71" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>132</v>
+      </c>
+      <c r="B72" t="s">
+        <v>131</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
